--- a/project/docs/project升级信息.xlsx
+++ b/project/docs/project升级信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>升级人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,7 +219,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.上传模块添加标准协议支持。2.实现showPois函数，支持地图描点。</t>
+    <t>1.上传模块添加标准协议支持。2.实现showPois函数，支持地图描点。3.增加Ottupnp插件。4.完善Auth插件退订接口。5.避免android的触屏id异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月8日9:32:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.地图插件问题修复。2.解决“edit-box 对文字的不能连续拖动”的问题。3.更新Ottupnp插件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -633,54 +648,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" ht="27">
       <c r="A3" s="1" t="s">
@@ -887,7 +902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5">
+    <row r="20" spans="1:4" ht="67.5">
       <c r="A20" s="17" t="s">
         <v>48</v>
       </c>
@@ -899,6 +914,20 @@
       </c>
       <c r="D20">
         <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54">
+      <c r="A21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/project/docs/project升级信息.xlsx
+++ b/project/docs/project升级信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>升级人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,118 @@
   </si>
   <si>
     <t>1.地图插件问题修复。2.解决“edit-box 对文字的不能连续拖动”的问题。3.更新Ottupnp插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月9日9:09:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.地图插件问题修复。2.优化图片解码。3.优化panorama_navigation控件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月18日9:27:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加GetLocalHostIP接口:获取本机的IP地址。2.地图showPOIS接口：画线、圆。3.完善ottupnp插件接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月18日15:47:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加chinanetWifi插件.2.完善地图showPOIS接口：增加可清除之前线、圆等覆盖物功能.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加文件：1.lib文件夹下增加chinanet_1.2.2.jar。2.src\com\wondertek\video下增加chinanetwifi文件夹及ChinanetWifiObserver.java、MemberOrderManager.java。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月25日9:10:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加WD播放器，支持单独音频和音视频的hls直播流播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加文件：venus/lib(lib_debug)下增加mediaplayer_wangda_surfaceHLS_HBGD。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月27日10:26:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加文件：src\com\wondertek\video\smsspam下增加SMSHandler.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.cnlive合并主干opengl es修改代码。2.添加短信监听。3.完善ottupnp插件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月27日20:25:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1cnlive合并主干opengl es修改代码。2.封装地图setmapzoom接口；完善showpois接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月28日16:59:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.cnlive合并主干opengl es修改代码.2.优化联网问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高永磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年6月29日16:04:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Dresden引擎换页特效使用opengl。2.修正图片下载策略。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +438,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -645,57 +781,58 @@
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
     </row>
     <row r="3" spans="1:22" ht="27">
       <c r="A3" s="1" t="s">
@@ -710,6 +847,9 @@
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="E3" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="27">
       <c r="A4" s="1" t="s">
@@ -860,7 +1000,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="67.5">
+    <row r="17" spans="1:5" ht="67.5">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -874,7 +1014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="54">
+    <row r="18" spans="1:5" ht="54">
       <c r="A18" s="14" t="s">
         <v>39</v>
       </c>
@@ -888,7 +1028,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="54">
+    <row r="19" spans="1:5" ht="54">
       <c r="A19" s="16" t="s">
         <v>45</v>
       </c>
@@ -902,7 +1042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="67.5">
+    <row r="20" spans="1:5" ht="67.5">
       <c r="A20" s="17" t="s">
         <v>48</v>
       </c>
@@ -916,7 +1056,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54">
+    <row r="21" spans="1:5" ht="54">
       <c r="A21" s="18" t="s">
         <v>51</v>
       </c>
@@ -928,6 +1068,127 @@
       </c>
       <c r="D21">
         <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="40.5">
+      <c r="A22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="54">
+      <c r="A23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="81">
+      <c r="A24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>110</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="54">
+      <c r="A25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <v>112</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="40.5">
+      <c r="A26" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="54">
+      <c r="A27" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27">
+      <c r="A28" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="40.5">
+      <c r="A29" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
